--- a/biology/Zoologie/Alsophis_rufiventris/Alsophis_rufiventris.xlsx
+++ b/biology/Zoologie/Alsophis_rufiventris/Alsophis_rufiventris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alsophis rufiventris, la Couresse à ventre rouge  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alsophis rufiventris, la Couresse à ventre rouge  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des îles Leeward[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des îles Leeward. 
 Elle ne survit plus que sur les îles de Saba et de Saint-Eustache. Elle vivait aussi sur les îles Saint-Christophe et Niévès, mais a disparu après l'introduction volontaire de la mangouste indienne (Herpestes javanicus).
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La couresse à ventre rouge mesure généralement 92 cm, mais peut dépasser les 110 cm. Sa coloration sombre lui permet de se cacher efficacement dans la végétation dense des îles où elle vit.
 Malgré son nom, ce serpent n'a pas le ventre rouge mais varie entre le orange, le jaune sale et le gris.
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Elle se nourrit principalement de petits reptiles :
 Anolis sabanus et probablement Sphaerodactylus sabanus sur Saba.
@@ -607,7 +625,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du latin rufiventris ventre rouge du fait de sa livrée.
 </t>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Duméril, Bibron &amp; Duméril, 1854 : Erpétologie générale ou histoire naturelle complète des reptiles. Tome septième. Deuxième partie, p. 781-1536 (texte intégral).</t>
         </is>
